--- a/docs/PTA2_DDC_60/PTA1_R6_BDDC_24.07.24_output.xlsx
+++ b/docs/PTA2_DDC_60/PTA1_R6_BDDC_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1343 +505,1602 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731410484.0969198</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731410484.0969198.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731410484.0969198.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>295.99</v>
       </c>
-      <c r="J3" t="n">
-        <v>295.99</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
+      <c r="L3" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.5099999999999909</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731410490.5357711</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731410496.6639903</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410490.5357711.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410496.6639903.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>135.9</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>136.36</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.460000000000008</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731410498.4541035</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731410498.5512176</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410498.4541035.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410498.5512176.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>6971</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6964.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>6.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731410504.476223</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731410505.400245</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410504.476223.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410505.400245.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6949.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6980</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>30.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731410505.4142075</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731410505.9060915</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410505.4142075.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410505.9060915.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6980</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6960</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>20</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731410506.1814046</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731410506.1814046.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731410506.1814046.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>533.2</v>
       </c>
-      <c r="J8" t="n">
-        <v>533.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="L8" t="n">
+        <v>537</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-3.799999999999955</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.7100000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731410514.0469296</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731410520.182562</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410514.0469296.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410520.182562.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>1103.4</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>1094.8</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>8.600000000000136</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.7799999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731410521.3680046</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731410521.3680046.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731410521.3680046.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>1092.6</v>
       </c>
-      <c r="J10" t="n">
-        <v>1092.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
+      <c r="L10" t="n">
+        <v>1084.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731410523.917487</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731410523.917487.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731410523.917487.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>129.48</v>
       </c>
-      <c r="J11" t="n">
-        <v>129.48</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>131.44</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-1.960000000000008</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-1.51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731410535.555142</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731410535.555142.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731410535.555142.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>169.68</v>
       </c>
-      <c r="J12" t="n">
-        <v>169.68</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
+      <c r="L12" t="n">
+        <v>171.74</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-2.060000000000002</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-1.21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731410544.4802897</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731410546.9711976</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410544.4802897.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410546.9711976.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>53.705</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>53.525</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.1799999999999997</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731410552.3162074</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731410555.588213</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410552.3162074.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410555.588213.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>1468.6</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>1468.8</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731410555.785909</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731410555.785909.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731410555.785909.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1464.4</v>
       </c>
-      <c r="J15" t="n">
-        <v>1464.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="L15" t="n">
+        <v>1464.8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.3999999999998636</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731410557.686379</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731410559.3596838</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410557.686379.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410559.3596838.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>64.06999999999999</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>63.78</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.289999999999992</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731410561.652505</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731410564.1901014</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410561.652505.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410564.1901014.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>64.39</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>63.91</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.480000000000004</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731410568.9823396</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731410570.5738676</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410568.9823396.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410570.5738676.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>58.86</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>59.2</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731410575.4455726</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731410577.379804</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410575.4455726.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410577.379804.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>145.58</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>146.4</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.8199999999999932</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731410578.8303716</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731410579.6459062</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410578.8303716.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410579.6459062.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>145.34</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>145.86</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.5200000000000102</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731410580.6996627</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731410581.1531699</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731410580.6996627.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731410581.1531699.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>91.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>90.2</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>1.299999999999997</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731410584.0872948</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731410584.0872948.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731410584.0872948.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="J22" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
+      <c r="L22" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.3000000000000114</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731410590.6823978</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731410592.173899</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731410590.6823978.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731410592.173899.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>364.06</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>361.6</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>2.45999999999998</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731410595.8722594</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731410595.8722594.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731410595.8722594.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>366.4</v>
       </c>
-      <c r="J24" t="n">
-        <v>366.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
+      <c r="L24" t="n">
+        <v>370.24</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-3.840000000000032</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-1.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731410598.1574185</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731410604.579251</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410598.1574185.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410604.579251.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>0.09960000000000001</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>0.1001</v>
       </c>
-      <c r="K25" t="n">
-        <v>-0.0005000000000000004</v>
+      <c r="M25" t="n">
+        <v>-0.0004999999999999866</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731410605.7090745</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731410605.7090745.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731410605.7090745.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>3117.15</v>
       </c>
-      <c r="J26" t="n">
-        <v>3117.15</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="L26" t="n">
+        <v>3132.95</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-15.79999999999973</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731410617.899573</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731410621.3632424</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410617.899573.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410621.3632424.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>38.055</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>38.01</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.04500000000000171</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731410623.5718226</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731410623.706031</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410623.5718226.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410623.706031.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>664.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>662.6</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>1.600000000000023</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731410624.426093</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731410624.5293093</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410624.426093.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410624.5293093.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>664.9</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>663.1</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731410627.0560956</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731410628.4400475</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410627.0560956.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410628.4400475.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>665.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>664.1</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +2114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1869,6 +2143,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1885,6 +2169,12 @@
       <c r="D2" t="n">
         <v>1.633333333333326</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1901,6 +2191,12 @@
       <c r="D3" t="n">
         <v>19</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1909,13 +2205,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.299999999999997</v>
+        <v>0.9999999999999858</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6499999999999986</v>
+        <v>0.4999999999999929</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="5">
@@ -1925,13 +2227,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.45999999999998</v>
+        <v>-1.380000000000052</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.22999999999999</v>
+        <v>-0.6900000000000261</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.3700000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="6">
@@ -1941,13 +2249,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2000000000000455</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1000000000000227</v>
+        <v>0.09999999999990905</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -1965,6 +2279,12 @@
       <c r="D7" t="n">
         <v>0.6700000000000017</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1981,6 +2301,12 @@
       <c r="D8" t="n">
         <v>0.384999999999998</v>
       </c>
+      <c r="E8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1989,13 +2315,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.600000000000136</v>
+        <v>0.6000000000001364</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>4.300000000000068</v>
+        <v>0.3000000000000682</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.04999999999999993</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
@@ -2005,13 +2337,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-3.799999999999955</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-3.799999999999955</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.7100000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.71</v>
       </c>
     </row>
     <row r="11">
@@ -2029,6 +2367,12 @@
       <c r="D11" t="n">
         <v>0.3400000000000034</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2037,13 +2381,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.5099999999999909</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-0.5099999999999909</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="13">
@@ -2061,6 +2411,12 @@
       <c r="D13" t="n">
         <v>-0.04500000000000171</v>
       </c>
+      <c r="E13" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2069,13 +2425,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-15.79999999999973</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-15.79999999999973</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="15">
@@ -2085,13 +2447,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-2.060000000000002</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-2.060000000000002</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-1.21</v>
       </c>
     </row>
     <row r="16">
@@ -2109,6 +2477,12 @@
       <c r="D16" t="n">
         <v>0.1799999999999997</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2117,13 +2491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.960000000000008</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.960000000000008</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.51</v>
       </c>
     </row>
     <row r="18">
@@ -2141,6 +2521,12 @@
       <c r="D18" t="n">
         <v>-0.460000000000008</v>
       </c>
+      <c r="E18" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.34</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2149,13 +2535,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0005000000000000004</v>
+        <v>-0.0004999999999999866</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0005000000000000004</v>
+        <v>-0.0004999999999999866</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20">
@@ -2171,6 +2563,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
